--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R0746fcd897704e20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R559276fc347f464e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R559276fc347f464e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R41461f4403ce47ab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R41461f4403ce47ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Ra0329e2781a248d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Ra0329e2781a248d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R76fe79b2e5f9431d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R76fe79b2e5f9431d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rfe44dc266a77468b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rfe44dc266a77468b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R858e971849ef4d2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R858e971849ef4d2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R952013c82dc948e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R952013c82dc948e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R67580e10febf44bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R67580e10febf44bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R1ae0289406a64dbf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R1ae0289406a64dbf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R997b62a0660e4659"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R997b62a0660e4659"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R4c28c19344a34eec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R4c28c19344a34eec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Re9e285144d52486c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/005_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Re9e285144d52486c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R80e2af0cf3514e41"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
